--- a/Data/Exp_1_2.xlsx
+++ b/Data/Exp_1_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10612"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyiming/Workspace/Lecture/PHY207 Lab/Technical_Document/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1F8FFA-46B4-E548-ADF2-05A384F5CE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDC9441-22E7-B546-861A-B9FD2B77EF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1020" yWindow="1120" windowWidth="27240" windowHeight="15940" xr2:uid="{804237F6-CB9C-0147-95C9-C77B15D8C5AF}"/>
+    <workbookView xWindow="1020" yWindow="1120" windowWidth="27240" windowHeight="15940" xr2:uid="{804237F6-CB9C-0147-95C9-C77B15D8C5AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,6 +487,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> between fringes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1172,6 +1232,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6E3B6F-DE19-3CD6-45CC-5785810A2D71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="3251200"/>
+          <a:ext cx="5930900" cy="4127500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1476,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D16FF9-2D11-E544-BDD9-0432AC03C7F8}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
